--- a/matrix/output.xlsx
+++ b/matrix/output.xlsx
@@ -1120,11 +1120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155914240"/>
-        <c:axId val="30301504"/>
+        <c:axId val="121324544"/>
+        <c:axId val="106304576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="155914240"/>
+        <c:axId val="121324544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,14 +1134,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30301504"/>
+        <c:crossAx val="106304576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="30301504"/>
+        <c:axId val="106304576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,21 +1168,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155914240"/>
+        <c:crossAx val="121324544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1977,11 +1975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119270400"/>
-        <c:axId val="38763264"/>
+        <c:axId val="121831424"/>
+        <c:axId val="106306880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="119270400"/>
+        <c:axId val="121831424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,14 +1989,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38763264"/>
+        <c:crossAx val="106306880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="38763264"/>
+        <c:axId val="106306880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,11 +2027,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119270400"/>
+        <c:crossAx val="121831424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2129,23 +2127,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-net" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-de" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-com" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-uk" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-org" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-net" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-de" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output-com" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2438,7 +2436,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
